--- a/数据整理/stocks/A股/上证主板/601628-中国人寿.xlsx
+++ b/数据整理/stocks/A股/上证主板/601628-中国人寿.xlsx
@@ -451,855 +451,1155 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>167301</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>方正富邦中证保险主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4639</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512070</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达沪深300非银行金融ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7811</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>001552</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>天弘中证证券保险指数型发起式 A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>94.96</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2.55</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7280</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>001553</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>天弘中证证券保险指数型发起式 C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>94.96</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2.55</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4208</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160625</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3210</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>470007</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>汇添富上证综合指数</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>94.61</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1.78</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1764</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>510760</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰上证综合ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1574</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>510210</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国上证综指ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1149</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002463</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信价值红利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>36.04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0980</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003955</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰民丰回报定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>37.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0873</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004694</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>30.41</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004403</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010100</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信鼎诚3个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002025</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.50</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>510210</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>富国上证综指ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>95.40</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>515630</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>96.93</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519646</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - I</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>30.86</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519652</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>30.86</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008563</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银河臻优稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>25.07</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000423</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002023</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>红塔红土稳健回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>39.42</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002024</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>红塔红土稳健回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>39.42</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002026</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>20.50</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008564</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银河臻优稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>25.07</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519653</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>30.86</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001865</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004748</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>30.41</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004404</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005404</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>创金合信价值红利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>36.04</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010101</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>创金合信鼎诚3个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>160625</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>鹏华中证800证券保险指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>94.57</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>167301</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>方正富邦中证保险主题指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>93.39</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>10.78</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>512070</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>易方达沪深300非银行金融ETF</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>99.39</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>515630</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>鹏华中证800证券保险ETF</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>96.93</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>000423</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>前海开源事件驱动混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>88.77</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>004404</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>平安股息精选沪港深股票C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>94.81</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>008563</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>银河臻优稳健配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>25.07</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>008564</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>银河臻优稳健配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>25.07</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>001865</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>前海开源事件驱动混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>88.77</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>002023</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>红塔红土稳健回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>39.42</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>002024</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>红塔红土稳健回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>39.42</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>002025</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>广发聚盛灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>20.50</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>002026</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>广发聚盛灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>20.50</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>002463</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>创金合信价值红利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>36.04</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>004403</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>平安股息精选沪港深股票A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>94.81</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>510760</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>国泰上证综合ETF</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>98.62</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>010100</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>创金合信鼎诚3个月定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>26.71</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>010101</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>创金合信鼎诚3个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>26.71</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>004694</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>天弘策略精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>30.41</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>004748</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>天弘策略精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>30.41</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>005404</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>创金合信价值红利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>36.04</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>519646</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>银河鑫利灵活配置混合 - I</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>30.86</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>519652</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>银河鑫利灵活配置混合 - A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>30.86</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>519653</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>银河鑫利灵活配置混合 - C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>30.86</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>003955</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>国泰民丰回报定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>37.23</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>6</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1309,7 +1609,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1330,15 +1630,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010923</t>
+          <t>167301</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>永赢鑫欣混合</t>
+          <t>方正富邦中证保险主题指数（LOF）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23.47</t>
+          <t>14.37</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3307</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004694</t>
+          <t>001552</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天弘策略精选灵活配置混合A</t>
+          <t>天弘中证证券保险指数型发起式 A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>35.35</t>
+          <t>24.90</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>95.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6100</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004748</t>
+          <t>512070</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天弘策略精选灵活配置混合C</t>
+          <t>易方达沪深300非银行金融ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>35.35</t>
+          <t>27.98</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>99.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5904</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>470007</t>
+          <t>001553</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇添富上证综合指数</t>
+          <t>天弘中证证券保险指数型发起式 C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.23</t>
+          <t>16.50</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>95.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4042</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001068</t>
+          <t>160625</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华融新锐灵活配置混合</t>
+          <t>鹏华中证800证券保险指数（LOF）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>53.80</t>
+          <t>11.25</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2599</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>510210</t>
+          <t>470007</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富国上证综指ETF</t>
+          <t>汇添富上证综合指数</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>98.82</t>
+          <t>8.56</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1267</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>510760</t>
+          <t>008723</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国泰上证综合ETF</t>
+          <t>永赢鑫享混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>98.36</t>
+          <t>6.92</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>25.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1114</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>512070</t>
+          <t>510210</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>易方达沪深300非银行金融ETF</t>
+          <t>富国上证综指ETF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>99.28</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1059</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001399</t>
+          <t>010923</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>安信鑫安得利灵活配置混合A</t>
+          <t>永赢鑫欣混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>23.87</t>
+          <t>6.84</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0917</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001400</t>
+          <t>003955</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>安信鑫安得利灵活配置混合C</t>
+          <t>国泰民丰回报定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>23.87</t>
+          <t>5.42</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>33.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>515630</t>
+          <t>510760</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>鹏华中证800证券保险ETF</t>
+          <t>国泰上证综合ETF</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>97.64</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
+          <t>98.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001552</t>
+          <t>004694</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>天弘中证证券保险指数型发起式 A</t>
+          <t>天弘策略精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>95.45</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>9</v>
+          <t>35.35</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001553</t>
+          <t>001399</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>天弘中证证券保险指数型发起式 C</t>
+          <t>安信鑫安得利灵活配置混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>95.45</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>9</v>
+          <t>23.87</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>519646</t>
+          <t>515630</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>银河鑫利灵活配置混合 - I</t>
+          <t>鹏华中证800证券保险ETF</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>26.96</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>5</v>
+          <t>97.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1752,15 +2202,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>26.96</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>0.73</t>
         </is>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>519653</t>
+          <t>008563</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>银河鑫利灵活配置混合 - C</t>
+          <t>银河臻优稳健配置混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>26.96</t>
+          <t>5.12</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>5</v>
+          <t>27.21</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>002025</t>
+          <t>001400</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>广发聚盛灵活配置混合A</t>
+          <t>安信鑫安得利灵活配置混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>20.24</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>5</v>
+          <t>23.87</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1826,25 +2306,35 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>002026</t>
+          <t>002025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>广发聚盛灵活配置混合C</t>
+          <t>广发聚盛灵活配置混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>20.24</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>0.54</t>
         </is>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1854,26 +2344,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>160625</t>
+          <t>519646</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>鹏华中证800证券保险指数（LOF）</t>
+          <t>银河鑫利灵活配置混合 - I</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>94.19</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>9</v>
+          <t>26.96</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1882,25 +2382,35 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>008723</t>
+          <t>008564</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>永赢鑫享混合</t>
+          <t>银河臻优稳健配置混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>25.77</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
+          <t>27.21</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1910,26 +2420,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>167301</t>
+          <t>002026</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>方正富邦中证保险主题指数（LOF）</t>
+          <t>广发聚盛灵活配置混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>92.09</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>9.26</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>4</v>
+          <t>20.24</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1938,26 +2458,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>003955</t>
+          <t>001068</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>国泰民丰回报定期开放灵活配置混合</t>
+          <t>华融新锐灵活配置混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>33.87</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>8</v>
+          <t>53.80</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -1966,26 +2496,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>008563</t>
+          <t>004748</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>银河臻优稳健配置混合A</t>
+          <t>天弘策略精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>27.21</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>6</v>
+          <t>35.35</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -1994,26 +2534,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>008564</t>
+          <t>519653</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>银河臻优稳健配置混合C</t>
+          <t>银河鑫利灵活配置混合 - C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>27.21</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>6</v>
+          <t>26.96</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601628-中国人寿.xlsx
+++ b/数据整理/stocks/A股/上证主板/601628-中国人寿.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2569,4 +2570,932 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>167301</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>方正富邦中证保险主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>12.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5238</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001552</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9647</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512070</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达沪深300非银行金融ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7936</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001553</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7150</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011093</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>永赢宏泽一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>27.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>48.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4817</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160625</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2726</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>470007</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富上证综合指数</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1341</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>510210</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国上证综指ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1025</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008723</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>永赢鑫享混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003955</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰民丰回报定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>66.38</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005248</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>新华沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004694</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>27.77</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>510760</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰上证综合ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>97.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>515630</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>97.26</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519652</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>28.32</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008563</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银河臻优稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>28.12</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008184</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>新华沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001601</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.71</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519646</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - I</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>28.32</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008564</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银河臻优稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>28.12</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519653</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>28.32</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004748</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>27.77</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001602</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>82.71</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601628-中国人寿.xlsx
+++ b/数据整理/stocks/A股/上证主板/601628-中国人寿.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3498,4 +3499,668 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>167301</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>方正富邦中证保险主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>11.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.9772</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>470007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富上证综合指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1100</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>510210</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国上证综指ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1047</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003955</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰民丰回报定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>58.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012605</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>510760</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰上证综合ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519652</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008563</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银河臻优稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012606</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004335</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝新飞跃灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>48.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008564</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银河臻优稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519646</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - I</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009595</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>山西证券裕盛一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004694</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.81</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004748</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519653</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601628-中国人寿.xlsx
+++ b/数据整理/stocks/A股/上证主板/601628-中国人寿.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4163,4 +4164,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>29</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601628-中国人寿.xlsx
+++ b/数据整理/stocks/A股/上证主板/601628-中国人寿.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4172,7 +4173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4183,17 +4184,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4203,14 +4224,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.55</v>
+          <t>167301</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>方正富邦中证保险主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>11.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.7233</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -4219,14 +4262,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>23</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.57</v>
+          <t>004871</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银金融地产混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2626</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -4235,14 +4300,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>24</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.14</v>
+          <t>470007</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富上证综合指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1085</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -4251,13 +4338,569 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>510210</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国上证综指ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003955</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰民丰回报定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>58.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010312</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银金融地产混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>350001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天治财富增长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>67.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012605</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002232</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>510760</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰上证综合ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001162</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519007</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>海富通强化回报混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>39.89</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012606</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002231</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001638</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>23</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>29</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>4.94</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601628-中国人寿.xlsx
+++ b/数据整理/stocks/A股/上证主板/601628-中国人寿.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4799,7 +4800,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4810,17 +4811,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4830,14 +4851,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.58</v>
+          <t>167301</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>方正富邦中证保险主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>11.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.0482</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -4846,14 +4889,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.55</v>
+          <t>004702</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5125</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -4862,14 +4927,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>23</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.57</v>
+          <t>162209</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰达宏利市值优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3617</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -4878,14 +4965,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>24</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.14</v>
+          <t>004871</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银金融地产混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2158</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -4894,13 +5003,509 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>510210</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国上证综指ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1309</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>470007</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富上证综合指数</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0994</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003955</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰民丰回报定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>47.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012605</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010312</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银金融地产混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>350001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天治财富增长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>69.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012606</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007678</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰达宏利品牌升级混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007679</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰达宏利品牌升级混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.57</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>24</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>29</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>4.94</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601628-中国人寿.xlsx
+++ b/数据整理/stocks/A股/上证主板/601628-中国人寿.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5388,7 +5389,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5399,17 +5400,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5419,14 +5440,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.6</v>
+          <t>167301</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>方正富邦中证保险主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>13.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.6577</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -5435,14 +5478,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.58</v>
+          <t>000251</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>69.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4847</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -5451,14 +5516,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>16</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.55</v>
+          <t>162209</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰达宏利市值优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5655</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -5467,14 +5554,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>23</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.57</v>
+          <t>010696</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4842</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -5483,14 +5592,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>24</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.14</v>
+          <t>000968</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2094</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -5499,13 +5630,1473 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>005274</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银景福回报混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>29.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1988</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>510210</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国上证综指ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1612</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010222</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫民丰盈和一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>24.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1556</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>470007</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富上证综合指数</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1214</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007318</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银民丰回报混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>32.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1134</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004871</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中银金融地产混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0955</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>163823</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中银稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>57.70</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002535</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中银鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>29.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>257040</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国联安红利混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012605</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>510760</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰上证综合ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>95.71</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005113</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>平安沪深300指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006952</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中银景元回报混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>37.40</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008773</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中银景泰回报混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>35.28</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002982</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002288</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中银稳进策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002714</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华金城灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>21.40</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012606</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010312</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中银金融地产混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006652</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002536</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中银鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>29.77</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003232</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>创金合信金融地产精选股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>77.70</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005114</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>平安沪深300指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>516560</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华宝养老ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>98.08</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003233</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>创金合信金融地产精选股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>77.70</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>090011</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>大成核心双动力混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>510190</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华安上证龙头ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>97.05</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011124</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005280</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>安信稳健阿尔法定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>35.48</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009624</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>安信稳健阿尔法定开混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>35.48</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003797</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华安新瑞利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>22.79</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>003798</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华安新瑞利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>22.79</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006689</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004696</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>东兴量化优享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008182</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>40</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>23</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.57</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>24</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>29</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>4.94</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601628-中国人寿.xlsx
+++ b/数据整理/stocks/A股/上证主板/601628-中国人寿.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="D2" t="n">
-        <v>13.04</v>
+        <v>22.29</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D3" t="n">
-        <v>8.6</v>
+        <v>13.04</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>7.58</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>5.55</v>
+        <v>7.58</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>7.57</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" t="n">
-        <v>4.14</v>
+        <v>7.57</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>24</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>29</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>4.94</v>
       </c>
     </row>
@@ -600,6 +617,3894 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H102"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>167301</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>方正富邦中证保险主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>52.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>15.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.9666</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000251</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银金融地产混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0329</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160505</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时主题行业混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>67.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8472</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512070</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达沪深300非银行金融ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2751</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002768</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安安进灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0396</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008283</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达金融行业股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6965</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010696</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银金融地产混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6870</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>162209</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰达宏利市值优选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6439</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000762</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富绝对收益策略定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>66.86</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>64.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6285</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013414</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>太平智远三个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5901</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001553</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.93</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5164</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>288001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏经典配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.72</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>71.28</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4867</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001552</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3499</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002095</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2903</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160625</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2755</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002096</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1839</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000968</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1778</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>510210</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国上证综指ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1741</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004350</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1524</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>162203</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泰达宏利稳定混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1437</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005270</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>太平改革红利精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>82.55</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1369</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>470007</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富上证综合指数</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1267</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008140</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富绝对收益策略定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>64.62</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1188</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003434</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>58.88</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1037</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004871</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中银金融地产混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1006</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>240002</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华宝宝康配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>63.59</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0950</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010897</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>太平价值增长股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>83.64</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008056</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方上证50指数增强A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0757</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>700001</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>平安行业先锋混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006600</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>人保沪深300指数</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011124</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>530011</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>建信内生动力混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>70.74</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006652</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010312</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中银金融地产混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>620006</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>金元顺安消费主题混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>84.01</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008057</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>南方上证50指数增强C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>015387</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中欧沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006121</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华安双核驱动混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005113</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>平安沪深300指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>210001</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>金鹰成份股优选混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>74.53</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>257040</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国联安红利混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>76.59</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>013767</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>平安价值回报混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012606</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>515630</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>95.27</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009967</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>博时荣泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>75.50</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012605</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>166007</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中欧互通精选混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002179</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华安事件驱动量化策略混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>003233</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>创金合信金融地产精选股票C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>84.45</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006573</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>970021</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>信达价值精选一年持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>51.28</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>210007</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>金鹰技术领先灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>24.96</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002982</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010896</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>太平价值增长股票A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>83.64</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012158</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>汇添富上证50基本面增强指数C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>87.67</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>015388</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中欧沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005114</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>平安沪深300指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>516560</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华宝养老ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>003435</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>58.88</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>161816</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>银华中证等权重90指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>012157</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>汇添富上证50基本面增强指数A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>87.67</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>210011</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>金鹰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>003232</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>创金合信金融地产精选股票A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>84.45</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>210006</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>金鹰元禧混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>28.04</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001830</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>融通跨界成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>210010</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>金鹰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>510190</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华安上证龙头ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>97.13</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011224</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>九泰盈泰量化股票A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>006279</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>70.27</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>003717</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010923</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>永赢鑫欣混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>30.04</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011225</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>九泰盈泰量化股票C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>970020</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>信达价值精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>51.28</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>006574</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>001664</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>平安鑫安混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>27.84</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>002425</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>金鹰元禧混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>28.04</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>005005</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>014649</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>永赢优质精选混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>80.97</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>006433</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>009882</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>004403</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>001884</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>中欧互通精选混合E</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>007049</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>平安鑫安混合E</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>27.84</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>013504</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华安双核驱动混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>003626</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>163821</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>中银沪深300等权重指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>009883</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>013768</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>平安价值回报混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>015693</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>005006</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>004696</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>东兴量化优享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>016282</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>建信内生动力混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>70.74</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>015364</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>004404</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>005021</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>渤海汇金量化汇盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>83.26</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>002196</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>金鹰技术领先灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>24.96</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>010484</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>001665</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>平安鑫安混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>27.84</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>014650</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>永赢优质精选混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>80.97</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>006280</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>70.27</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>016182</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>华安安进灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>74.81</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2173,7 +6078,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2761,7 +6666,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3387,7 +7292,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4051,7 +7956,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4979,7 +8884,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5947,7 +9852,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601628-中国人寿.xlsx
+++ b/数据整理/stocks/A股/上证主板/601628-中国人寿.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="D2" t="n">
-        <v>22.29</v>
+        <v>31.14</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="D3" t="n">
-        <v>13.04</v>
+        <v>22.29</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D4" t="n">
-        <v>8.6</v>
+        <v>13.04</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>7.58</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>5.55</v>
+        <v>7.58</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D7" t="n">
-        <v>7.57</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" t="n">
-        <v>4.14</v>
+        <v>7.57</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1188 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>24</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>29</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>4.94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>167301</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>方正富邦中证保险主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4639</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512070</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达沪深300非银行金融ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7811</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001552</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7280</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001553</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4208</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160625</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3210</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>470007</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富上证综合指数</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1764</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>510760</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰上证综合ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1574</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>510210</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国上证综指ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1149</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002463</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信价值红利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>36.04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0980</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003955</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰民丰回报定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>37.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0873</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004694</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>30.41</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004403</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010100</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信鼎诚3个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002025</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.50</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>515630</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>96.93</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519646</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - I</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>30.86</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519652</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>30.86</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008563</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银河臻优稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>25.07</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000423</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002023</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>红塔红土稳健回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>39.42</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002024</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>红塔红土稳健回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>39.42</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002026</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>20.50</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008564</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银河臻优稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>25.07</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519653</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>30.86</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001865</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004748</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>30.41</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004404</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005404</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>创金合信价值红利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>36.04</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010101</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>创金合信鼎诚3个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1792,4874 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H128"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>167301</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>方正富邦中证保险主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>14.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.7444</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000251</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银金融地产混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>48.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6590</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160505</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时主题行业混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>66.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1723</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512070</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达沪深300非银行金融ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>55.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9686</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008283</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达金融行业股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4856</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002768</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安安进灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3617</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安安信消费混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>62.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3504</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011338</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>32.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9921</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000294</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安生态优先混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>34.12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8291</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010696</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银金融地产混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.33</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6806</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013414</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>太平智远三个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6798</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001553</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>19.93</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6198</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>340006</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴全全球视野股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>19.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6127</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>162209</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰达宏利市值优选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6092</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>040004</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安宝利配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.66</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>73.27</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5094</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001552</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4003</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>952099</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>20.57</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3723</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002095</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3457</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>470028</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富社会责任混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.27</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3266</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160625</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3212</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>450010</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国富策略回报混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>79.59</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2973</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002096</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2934</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005937</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2577</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005938</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2493</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013686</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华安安信消费混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.44</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2265</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>510210</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国上证综指ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>10.74</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2212</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>050018</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2086</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014977</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华安生态优先混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1937</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005270</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>太平改革红利精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>84.22</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1535</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011124</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.31</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1532</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>470007</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇添富上证综合指数</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1523</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>200002</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长城久泰沪深300指数 A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1439</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>240002</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华宝宝康配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>70.02</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1412</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006912</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长城久泰沪深300指数 C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1318</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>162203</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>泰达宏利稳定混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1225</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008056</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>南方上证50指数增强A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1209</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>952009</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1207</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006652</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>86.31</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1134</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>003434</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>65.87</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1023</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001633</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>万家瑞祥灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010897</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>太平价值增长股票C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>86.21</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0844</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008057</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>南方上证50指数增强C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0804</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>620006</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>金元顺安消费主题混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011927</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>博时汇誉回报混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>54.52</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005295</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>诺德天富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0672</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005113</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>平安沪深300指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>700001</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>平安行业先锋混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>016163</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>万家欣远混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>67.94</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006121</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华安双核驱动混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011339</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>510760</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国泰上证综合ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>97.18</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>014135</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中欧金安量化混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>012606</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>015287</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>永赢优质生活混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>36.42</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>515630</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>97.86</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>002660</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>兴业聚源混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>29.85</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>004495</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>博时量化平衡混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>37.29</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>012605</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009967</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>博时荣泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>82.22</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>257040</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国联安红利混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009114</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>鹏扬景泓回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001634</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>万家瑞祥灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011800</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>申万菱信价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>79.42</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>519963</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>34.67</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>012435</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>万家招瑞回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>013767</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>平安价值回报混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>000590</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华安新活力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>29.37</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>003595</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>54.03</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001990</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>015276</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>博时均衡回报混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>73.67</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>015288</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>永赢优质生活混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>36.42</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>013742</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>兴业聚源混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>29.85</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>005114</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>平安沪深300指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>005519</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>银华混改红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>003233</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>创金合信金融地产精选股票C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>42.64</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>004731</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>万家瑞尧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>20.81</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>010896</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>太平价值增长股票A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>86.21</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>002085</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>长盛互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>004732</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>万家瑞尧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>20.81</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>012158</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>汇添富上证50基本面增强指数C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>87.06</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>011534</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>万家民瑞祥明6个月持有期混合型A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>004234</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>012157</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>汇添富上证50基本面增强指数A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>87.06</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>002415</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>融通通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>81.71</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>003435</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>65.87</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>016164</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>万家欣远混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>67.94</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011816</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>融通多元收益一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>22.61</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>210007</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>金鹰技术领先灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>33.64</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>003594</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>54.03</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>011928</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>博时汇誉回报混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>54.52</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>003147</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>011224</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>九泰盈泰量化股票A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>014136</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>中欧金安量化混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>005618</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>融通红利机会主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>84.29</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>011225</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>九泰盈泰量化股票C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>009115</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>鹏扬景泓回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>011798</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>华安宁享6个月混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>27.44</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>011799</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>华安宁享6个月混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>27.44</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>003232</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>创金合信金融地产精选股票A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>42.64</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>015277</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>博时均衡回报混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>73.67</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>001664</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>平安鑫安混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>27.32</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>006433</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>26.90</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>009882</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>64.41</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>004988</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>人保双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>29.15</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>004403</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>003626</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>26.90</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>015693</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>009883</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>64.41</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>001530</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>万家瑞富灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>23.67</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>012436</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>万家招瑞回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>007049</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>平安鑫安混合E</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>27.32</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>011535</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>万家民瑞祥明6个月持有期混合型C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>013768</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>平安价值回报混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>005619</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>融通红利机会主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>84.29</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>012007</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>万家瑞富灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>23.67</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>004404</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>002196</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>金鹰技术领先灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>33.64</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>001665</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>平安鑫安混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>27.32</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>519962</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>34.67</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>015526</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>004989</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>人保双利优选混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>29.15</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>016179</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>华安新活力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>29.37</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>015192</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>汇添富社会责任混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>0</v>
+      </c>
+      <c r="H124" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>015193</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>汇添富社会责任混合D</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>015158</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>申万菱信价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>79.42</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>013504</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>华安双核驱动混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>016182</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>华安安进灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>75.78</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4504,7 +10547,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6078,7 +12121,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6666,7 +12709,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7292,7 +13335,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7956,7 +13999,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8884,7 +14927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9850,1162 +15893,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>167301</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>方正富邦中证保险主题指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>13.58</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.39</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>10.78</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.4639</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>512070</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>易方达沪深300非银行金融ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>34.87</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>99.39</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.7811</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001552</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>天弘中证证券保险指数型发起式 A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>28.55</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.96</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.7280</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001553</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>天弘中证证券保险指数型发起式 C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>16.50</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.96</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.4208</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>160625</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>鹏华中证800证券保险指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>13.21</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.57</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.3210</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>470007</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>汇添富上证综合指数</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>9.91</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.61</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1764</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>510760</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国泰上证综合ETF</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>8.33</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>98.62</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1574</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>510210</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>富国上证综指ETF</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>95.40</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1149</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002463</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>创金合信价值红利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>5.60</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>36.04</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0980</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>003955</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>国泰民丰回报定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>5.49</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>37.23</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0873</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>004694</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>天弘策略精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>30.41</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0767</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>004403</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>平安股息精选沪港深股票A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.81</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0753</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>010100</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>创金合信鼎诚3个月定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>26.71</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0668</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>002025</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>广发聚盛灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>7.03</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>20.50</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0506</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>515630</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>鹏华中证800证券保险ETF</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>96.93</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0500</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>519646</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>银河鑫利灵活配置混合 - I</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>30.86</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0472</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>519652</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>银河鑫利灵活配置混合 - A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>30.86</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0472</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>008563</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>银河臻优稳健配置混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>5.97</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>25.07</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0466</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>000423</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>前海开源事件驱动混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>88.77</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0429</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>002023</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>红塔红土稳健回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>39.42</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0265</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>002024</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>红塔红土稳健回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>39.42</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0214</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>002026</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>广发聚盛灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>20.50</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0130</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>008564</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>银河臻优稳健配置混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>25.07</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0119</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>519653</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>银河鑫利灵活配置混合 - C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>30.86</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0068</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>001865</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>前海开源事件驱动混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>88.77</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0056</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>004748</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>天弘策略精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>30.41</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0051</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>004404</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>平安股息精选沪港深股票C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>94.81</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>005404</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>创金合信价值红利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>36.04</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>010101</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>创金合信鼎诚3个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>26.71</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>